--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126112a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126112a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que foram vítimas de agressão física, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -106,15 +94,9 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
-    <t xml:space="preserve">sem rendimento a menos </t>
-  </si>
-  <si>
     <t>de 1/4 do salário mínimo (3)(5)</t>
   </si>
   <si>
@@ -128,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -491,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,6 +532,24 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9.927290833103656</v>
+      </c>
+      <c r="D5">
+        <v>5.413057628044406</v>
+      </c>
+      <c r="E5">
+        <v>6.192213738933812</v>
+      </c>
+      <c r="F5">
+        <v>4.118115012616331</v>
+      </c>
+      <c r="G5">
+        <v>4.688922497239006</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -565,19 +559,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.927290833103656</v>
+        <v>12.2760231643011</v>
       </c>
       <c r="D6">
-        <v>5.413057628044406</v>
+        <v>8.336422711660161</v>
       </c>
       <c r="E6">
-        <v>6.192213738933812</v>
+        <v>9.496778893011806</v>
       </c>
       <c r="F6">
-        <v>4.118115012616331</v>
+        <v>4.200300731193673</v>
       </c>
       <c r="G6">
-        <v>4.688922497239006</v>
+        <v>5.412036136677721</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -588,25 +582,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.2760231643011</v>
+        <v>11.43355428243113</v>
       </c>
       <c r="D7">
-        <v>8.336422711660161</v>
+        <v>7.672727505847191</v>
       </c>
       <c r="E7">
-        <v>9.496778893011806</v>
+        <v>8.550069121444595</v>
       </c>
       <c r="F7">
-        <v>4.200300731193673</v>
+        <v>5.646820987615149</v>
       </c>
       <c r="G7">
-        <v>5.412036136677721</v>
+        <v>5.642282079487593</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10.1596726685016</v>
+      </c>
+      <c r="D8">
+        <v>6.160670695227867</v>
+      </c>
+      <c r="E8">
+        <v>6.908182038860454</v>
+      </c>
+      <c r="F8">
+        <v>3.476644731088095</v>
+      </c>
+      <c r="G8">
+        <v>4.577327046798887</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -616,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.43355428243113</v>
+        <v>21.54235810262479</v>
       </c>
       <c r="D9">
-        <v>7.672727505847191</v>
+        <v>12.45741091550848</v>
       </c>
       <c r="E9">
-        <v>8.550069121444595</v>
+        <v>16.2187952489122</v>
       </c>
       <c r="F9">
-        <v>5.646820987615149</v>
+        <v>7.176596556349427</v>
       </c>
       <c r="G9">
-        <v>5.642282079487593</v>
+        <v>11.72221730737577</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -639,19 +651,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.1596726685016</v>
+        <v>11.63112060803097</v>
       </c>
       <c r="D10">
-        <v>6.160670695227867</v>
+        <v>7.007241916312314</v>
       </c>
       <c r="E10">
-        <v>6.908182038860454</v>
+        <v>7.479160857352509</v>
       </c>
       <c r="F10">
-        <v>3.476644731088095</v>
+        <v>3.987305779195903</v>
       </c>
       <c r="G10">
-        <v>4.577327046798887</v>
+        <v>4.862503228180652</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -662,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>21.54235810262479</v>
+        <v>11.57092884181152</v>
       </c>
       <c r="D11">
-        <v>12.45741091550848</v>
+        <v>6.235145788509167</v>
       </c>
       <c r="E11">
-        <v>16.2187952489122</v>
+        <v>8.758484137170509</v>
       </c>
       <c r="F11">
-        <v>7.176596556349427</v>
+        <v>4.273971485709047</v>
       </c>
       <c r="G11">
-        <v>11.72221730737577</v>
+        <v>5.037869816714452</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -685,25 +697,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.63112060803097</v>
+        <v>15.64680672463409</v>
       </c>
       <c r="D12">
-        <v>7.007241916312314</v>
+        <v>9.431517621219321</v>
       </c>
       <c r="E12">
-        <v>7.479160857352509</v>
+        <v>9.7379679317335</v>
       </c>
       <c r="F12">
-        <v>3.987305779195903</v>
+        <v>6.667656391667244</v>
       </c>
       <c r="G12">
-        <v>4.862503228180652</v>
+        <v>7.334092657883198</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>28.35266883648733</v>
+      </c>
+      <c r="D13">
+        <v>18.22265179982389</v>
+      </c>
+      <c r="E13">
+        <v>16.73782479312518</v>
+      </c>
+      <c r="F13">
+        <v>8.61284110975031</v>
+      </c>
+      <c r="G13">
+        <v>12.28121785695665</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -713,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.57092884181152</v>
+        <v>22.92592281587916</v>
       </c>
       <c r="D14">
-        <v>6.235145788509167</v>
+        <v>15.32399604924828</v>
       </c>
       <c r="E14">
-        <v>8.758484137170509</v>
+        <v>14.3828981265282</v>
       </c>
       <c r="F14">
-        <v>4.273971485709047</v>
+        <v>8.16838202295936</v>
       </c>
       <c r="G14">
-        <v>5.037869816714452</v>
+        <v>9.796041338080498</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -736,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.64680672463409</v>
+        <v>17.37279079624173</v>
       </c>
       <c r="D15">
-        <v>9.431517621219321</v>
+        <v>13.66261086364586</v>
       </c>
       <c r="E15">
-        <v>9.7379679317335</v>
+        <v>14.24617943463996</v>
       </c>
       <c r="F15">
-        <v>6.667656391667244</v>
+        <v>9.636577397585752</v>
       </c>
       <c r="G15">
-        <v>7.334092657883198</v>
+        <v>10.22943037419303</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -759,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>28.35266883648733</v>
+        <v>24.19873498585023</v>
       </c>
       <c r="D16">
-        <v>18.22265179982389</v>
+        <v>16.07732442065908</v>
       </c>
       <c r="E16">
-        <v>16.73782479312518</v>
+        <v>19.1472775086472</v>
       </c>
       <c r="F16">
-        <v>8.61284110975031</v>
+        <v>8.201289662329518</v>
       </c>
       <c r="G16">
-        <v>12.28121785695665</v>
+        <v>12.14350434540447</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -782,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>22.92592281587916</v>
+        <v>12.60538299801772</v>
       </c>
       <c r="D17">
-        <v>15.32399604924828</v>
+        <v>6.463157461282302</v>
       </c>
       <c r="E17">
-        <v>14.3828981265282</v>
+        <v>8.321891240404236</v>
       </c>
       <c r="F17">
-        <v>8.16838202295936</v>
+        <v>4.218217315890711</v>
       </c>
       <c r="G17">
-        <v>9.796041338080498</v>
+        <v>4.906636650653695</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -805,25 +835,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>17.37279079624173</v>
+        <v>20.77786208516952</v>
       </c>
       <c r="D18">
-        <v>13.66261086364586</v>
+        <v>13.39773432409479</v>
       </c>
       <c r="E18">
-        <v>14.24617943463996</v>
+        <v>14.81559242632765</v>
       </c>
       <c r="F18">
-        <v>9.636577397585752</v>
+        <v>8.547215949374287</v>
       </c>
       <c r="G18">
-        <v>10.22943037419303</v>
+        <v>11.2916990380199</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>25.14234656560165</v>
+      </c>
+      <c r="D19">
+        <v>15.59111264728936</v>
+      </c>
+      <c r="E19">
+        <v>17.70732810839616</v>
+      </c>
+      <c r="F19">
+        <v>10.13827610582103</v>
+      </c>
+      <c r="G19">
+        <v>12.56129094043881</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -833,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>24.19873498585023</v>
+        <v>18.09116871166361</v>
       </c>
       <c r="D20">
-        <v>16.07732442065908</v>
+        <v>11.80313970700258</v>
       </c>
       <c r="E20">
-        <v>19.1472775086472</v>
+        <v>11.01721351828181</v>
       </c>
       <c r="F20">
-        <v>8.201289662329518</v>
+        <v>7.728403713382255</v>
       </c>
       <c r="G20">
-        <v>12.14350434540447</v>
+        <v>9.592892397712379</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -856,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.60538299801772</v>
+        <v>33.44377152654125</v>
       </c>
       <c r="D21">
-        <v>6.463157461282302</v>
+        <v>29.16295592294683</v>
       </c>
       <c r="E21">
-        <v>8.321891240404236</v>
+        <v>22.35406992405118</v>
       </c>
       <c r="F21">
-        <v>4.218217315890711</v>
+        <v>21.1172463533881</v>
       </c>
       <c r="G21">
-        <v>4.906636650653695</v>
+        <v>19.60550082798878</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -879,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>20.77786208516952</v>
+        <v>35.40697790901083</v>
       </c>
       <c r="D22">
-        <v>13.39773432409479</v>
+        <v>21.89544597627763</v>
       </c>
       <c r="E22">
-        <v>14.81559242632765</v>
+        <v>24.96237244264085</v>
       </c>
       <c r="F22">
-        <v>8.547215949374287</v>
+        <v>19.02409001288226</v>
       </c>
       <c r="G22">
-        <v>11.2916990380199</v>
+        <v>16.25583927187649</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -902,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>25.14234656560165</v>
+        <v>7.9581552151927</v>
       </c>
       <c r="D23">
-        <v>15.59111264728936</v>
+        <v>4.838845240645833</v>
       </c>
       <c r="E23">
-        <v>17.70732810839616</v>
+        <v>5.517909928145605</v>
       </c>
       <c r="F23">
-        <v>10.13827610582103</v>
+        <v>3.122503324581905</v>
       </c>
       <c r="G23">
-        <v>12.56129094043881</v>
+        <v>3.893921772958755</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -925,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>18.09116871166361</v>
+        <v>21.90792663567805</v>
       </c>
       <c r="D24">
-        <v>11.80313970700258</v>
+        <v>11.89906632051965</v>
       </c>
       <c r="E24">
-        <v>11.01721351828181</v>
+        <v>14.57903083108086</v>
       </c>
       <c r="F24">
-        <v>7.728403713382255</v>
+        <v>8.022560808445252</v>
       </c>
       <c r="G24">
-        <v>9.592892397712379</v>
+        <v>8.448802052157946</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -948,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>33.44377152654125</v>
+        <v>16.00739494977204</v>
       </c>
       <c r="D25">
-        <v>29.16295592294683</v>
+        <v>10.93715847569012</v>
       </c>
       <c r="E25">
-        <v>22.35406992405118</v>
+        <v>12.08046861600475</v>
       </c>
       <c r="F25">
-        <v>21.1172463533881</v>
+        <v>5.456116137900074</v>
       </c>
       <c r="G25">
-        <v>19.60550082798878</v>
+        <v>7.469204592439165</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -971,25 +1019,43 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>35.40697790901083</v>
+        <v>15.92948705920949</v>
       </c>
       <c r="D26">
-        <v>21.89544597627763</v>
+        <v>8.057762536541185</v>
       </c>
       <c r="E26">
-        <v>24.96237244264085</v>
+        <v>10.02978227385126</v>
       </c>
       <c r="F26">
-        <v>19.02409001288226</v>
+        <v>5.952824305562895</v>
       </c>
       <c r="G26">
-        <v>16.25583927187649</v>
+        <v>6.33897036552646</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>15.60072194591632</v>
+      </c>
+      <c r="D27">
+        <v>10.45890746889747</v>
+      </c>
+      <c r="E27">
+        <v>11.73147056863606</v>
+      </c>
+      <c r="F27">
+        <v>7.231936996147836</v>
+      </c>
+      <c r="G27">
+        <v>7.769337787042948</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
@@ -999,149 +1065,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7.9581552151927</v>
+        <v>18.8254633474469</v>
       </c>
       <c r="D28">
-        <v>4.838845240645833</v>
+        <v>13.01194201283101</v>
       </c>
       <c r="E28">
-        <v>5.517909928145605</v>
+        <v>14.35599798440254</v>
       </c>
       <c r="F28">
-        <v>3.122503324581905</v>
+        <v>13.01945221939796</v>
       </c>
       <c r="G28">
-        <v>3.893921772958755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>21.90792663567805</v>
-      </c>
-      <c r="D30">
-        <v>11.89906632051965</v>
-      </c>
-      <c r="E30">
-        <v>14.57903083108086</v>
-      </c>
-      <c r="F30">
-        <v>8.022560808445252</v>
-      </c>
-      <c r="G30">
-        <v>8.448802052157946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>16.00739494977204</v>
-      </c>
-      <c r="D31">
-        <v>10.93715847569012</v>
-      </c>
-      <c r="E31">
-        <v>12.08046861600475</v>
-      </c>
-      <c r="F31">
-        <v>5.456116137900074</v>
-      </c>
-      <c r="G31">
-        <v>7.469204592439165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>15.92948705920949</v>
-      </c>
-      <c r="D32">
-        <v>8.057762536541185</v>
-      </c>
-      <c r="E32">
-        <v>10.02978227385126</v>
-      </c>
-      <c r="F32">
-        <v>5.952824305562895</v>
-      </c>
-      <c r="G32">
-        <v>6.33897036552646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>15.60072194591632</v>
-      </c>
-      <c r="D33">
-        <v>10.45890746889747</v>
-      </c>
-      <c r="E33">
-        <v>11.73147056863606</v>
-      </c>
-      <c r="F33">
-        <v>7.231936996147836</v>
-      </c>
-      <c r="G33">
-        <v>7.769337787042948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>18.8254633474469</v>
-      </c>
-      <c r="D34">
-        <v>13.01194201283101</v>
-      </c>
-      <c r="E34">
-        <v>14.35599798440254</v>
-      </c>
-      <c r="F34">
-        <v>13.01945221939796</v>
-      </c>
-      <c r="G34">
         <v>11.18810614811186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
